--- a/biology/Histoire de la zoologie et de la botanique/Gaston_de_Saporta/Gaston_de_Saporta.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaston_de_Saporta/Gaston_de_Saporta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaston de Saporta, né à Saint-Zacharie (Var) le 28 juillet 1823 et mort à Aix-en-Provence le 26 janvier 1895, est un paléobotaniste français. Il a fait apparaître la transformation des espèces floristiques au cours des différentes ères.
 </t>
@@ -513,19 +525,129 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Une jeunesse dorée
-Né d’une famille noble, Gaston de Saporta ne se destine pas à la paléobotanique. Bien que son père soit passionné par l’étude des papillons et son grand-père, Étienne de Fonscolombe, par l’entomologie en général, ses goûts sont plutôt littéraires à une époque où la poésie est fort prisée dans les salons. À 20 ans, il fréquente le monde, voyage et gère ses biens pour tenir son rang. Il a, en quelque sorte, une vie de dilettante fortuné.
-Une révélation
-C’est à la mort de sa femme, Valentine de Forbin des Issarts La Barben, le 20 janvier 1850, qu’il cherche diversion dans la botanique et apprend à reconnaître les espèces végétales méditerranéennes et celles qu’il rencontre au cours de ses voyages. Très vite, il se spécialise dans les plantes fossiles et commence à parcourir les gisements proches et peu explorés des plâtrières d'Aix-en-Provence qu’il décrit et classe ensuite. Le 23 avril 1854, il épouse Émilie de Gabrielli de Gubbio, issue de la noblesse aixoise.
-Les débuts de l'évolution
-En 1860, il fait paraître dans le Bulletin de la Société vaudoise des sciences naturelles son premier travail résumant les résultats de ses études sur les plantes fossiles de Provence.
+          <t>Une jeunesse dorée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né d’une famille noble, Gaston de Saporta ne se destine pas à la paléobotanique. Bien que son père soit passionné par l’étude des papillons et son grand-père, Étienne de Fonscolombe, par l’entomologie en général, ses goûts sont plutôt littéraires à une époque où la poésie est fort prisée dans les salons. À 20 ans, il fréquente le monde, voyage et gère ses biens pour tenir son rang. Il a, en quelque sorte, une vie de dilettante fortuné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gaston_de_Saporta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaston_de_Saporta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Une révélation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est à la mort de sa femme, Valentine de Forbin des Issarts La Barben, le 20 janvier 1850, qu’il cherche diversion dans la botanique et apprend à reconnaître les espèces végétales méditerranéennes et celles qu’il rencontre au cours de ses voyages. Très vite, il se spécialise dans les plantes fossiles et commence à parcourir les gisements proches et peu explorés des plâtrières d'Aix-en-Provence qu’il décrit et classe ensuite. Le 23 avril 1854, il épouse Émilie de Gabrielli de Gubbio, issue de la noblesse aixoise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gaston_de_Saporta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaston_de_Saporta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les débuts de l'évolution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1860, il fait paraître dans le Bulletin de la Société vaudoise des sciences naturelles son premier travail résumant les résultats de ses études sur les plantes fossiles de Provence.
 À partir de 1862, il publie des notes dans le Bulletin de la Société géologique de France, puis dans celui de la Société botanique de France. Il écrit notamment sous forme de chapitres successifs, dans les Annales des Sciences naturelles, ses Études sur la végétation du Sud-Est de la France à l’époque tertiaire. L’ensemble se termine en 1874, avec 238 espèces détaillées.
 En 1864, il s’attaque à la flore quaternaire, puis en 1869 à celle du tertiaire. Les observations se sont multipliées dans la première moitié du XIXe siècle mais, au moment où Saporta commence ses recherches, les avancées n’en sont qu’à la vision de Cuvier : créations et destructions se sont succédé indépendamment les unes des autres.
 Les découvertes paléontologiques de la seconde moitié du siècle mettent en avant les ressemblances entre certains fossiles d’ères différentes, voire avec des plantes de notre période contemporaine. « Il n’est pas d’arbre ou d’arbuste en Europe, dans l’Amérique du Nord, aux Canaries, dans la région méditerranéenne, qu’on ne rencontre à l’état fossile sous une forme spécifique plus ou moins rapprochée de celle d’aujourd’hui. »
 Là, l’idée d’évolution émerge. C’est dans ce contexte que Saporta rend évidente cette continuité et fait aussi apparaître la transformation lente des espèces floristiques. De plus, lors de ses recherches autour d’Aix, il découvre une flore tropicale dans une région aujourd’hui tempérée. Incontestablement, il y a une variation du climat, ce qui vient définitivement ruiner l’hypothèse des révolutions du globe. Pas de cataclysme pour effacer les espèces disparues de la surface de la Terre, pas de création pour renouveler un monde vivant. Il ira même plus loin, en affirmant l’existence d’un « berceau primitif » dans le Nord. Les différentes expéditions ont rapporté des fossiles témoignant d’une végétation à l’ère tertiaire au Spitzberg, au Groenland et en Islande. Les migrations des plantes seraient liées aux changements climatiques.
 Dans des échanges avec Darwin, entre 1875 et 1881, l'hypothèse de la co-évolution entre plantes à fleurs et insectes est posée par Gaston de Saporta, sans qu'il n'emploie, toutefois, le terme de "co-évolution".
-L'homme de sciences
-Il est bientôt connu des hommes de science qui apprécient ses découvertes et, bien qu’amateur, il sait très rapidement s’imposer. Il entretient notamment une correspondance avec Darwin, dont il partage les idées évolutionnistes. On reconnaît ses résultats et on admire sa droiture. Le cas de Saporta est exceptionnel. Il n’aura jamais le souci de gravir les échelons d’une carrière et peut donc affirmer ses opinions sans crainte de déplaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gaston_de_Saporta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaston_de_Saporta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'homme de sciences</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est bientôt connu des hommes de science qui apprécient ses découvertes et, bien qu’amateur, il sait très rapidement s’imposer. Il entretient notamment une correspondance avec Darwin, dont il partage les idées évolutionnistes. On reconnaît ses résultats et on admire sa droiture. Le cas de Saporta est exceptionnel. Il n’aura jamais le souci de gravir les échelons d’une carrière et peut donc affirmer ses opinions sans crainte de déplaire.
 Il voyage pour ses recherches, se rend aussi au Muséum national d'histoire naturelle de Paris, assiste aux réunions des sociétés savantes, participe à des congrès. Il use de son influence pour qu'un musée d'histoire naturelle soit créé à Aix et lui donne une partie de son herbier et de sa collection de plantes fossiles.
 À la mort d'Alcide Dessalines d'Orbigny, il participe avec Louis Édouard Gourdan de Fromentel et Henry Testot-Ferry à la création du Comité de paléontologie française. L'objectif est de poursuivre la Paléontologie française de d'Orbigny : 16 nouveaux volumes verront le jour et servent toujours de référence aujourd'hui.
 Il est très présent dans les activités locales et, en 1866, entre à l’Académie des sciences, agriculture, arts et belles-lettres d'Aix, dont il sera plusieurs fois président. En quelque sorte, il suit une destinée familiale puisque depuis trois générations, quatre membres de sa famille en ont fait partie.
@@ -536,62 +658,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Gaston_de_Saporta</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gaston_de_Saporta</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hommage posthume</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au centre d'Aix-en-Provence dans le bourg Saint-Sauveur, une rue porte son nom. C'est au numéro 21 de celle-ci (où se trouve actuellement l'Institut de management public et gouvernance territoriale (IMPGT) de l'université d'Aix-Marseille), alors dénommée rue de la Grande-Horloge, que vivait le savant[2]. La rue, jalonnée par la cathédrale Saint-Sauveur, part de la place de l'Hôtel-de-Ville pour aboutir au boulevard extérieur. On y trouve notamment le musée du Vieil-Aix, qu'abrite l'hôtel d'Estienne-de-Saint-Jean, et l'Institut d'études politiques d'Aix-en-Provence.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au centre d'Aix-en-Provence dans le bourg Saint-Sauveur, une rue porte son nom. C'est au numéro 21 de celle-ci (où se trouve actuellement l'Institut de management public et gouvernance territoriale (IMPGT) de l'université d'Aix-Marseille), alors dénommée rue de la Grande-Horloge, que vivait le savant. La rue, jalonnée par la cathédrale Saint-Sauveur, part de la place de l'Hôtel-de-Ville pour aboutir au boulevard extérieur. On y trouve notamment le musée du Vieil-Aix, qu'abrite l'hôtel d'Estienne-de-Saint-Jean, et l'Institut d'études politiques d'Aix-en-Provence.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Gaston_de_Saporta</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gaston_de_Saporta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Sur le rôle des végétaux à feuilles caduques dans les flores tertiaires antérieures au miocène proprement dit et spécialement dans celle du gypse d'Aix, 1863 Texte en ligne
 Notice sur les plantes fossiles des calcaires concrétionnés de Brognon (Côte-d'Or), 1866 Texte en ligne
